--- a/dataproject/data/eu27_pas_gdp.xlsx
+++ b/dataproject/data/eu27_pas_gdp.xlsx
@@ -1442,9 +1442,6 @@
       <c r="I26">
         <v>3.289238469789058</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1">
@@ -1468,9 +1465,6 @@
       <c r="I27">
         <v>3.461405330564205</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1">
@@ -1500,9 +1494,6 @@
       <c r="I28">
         <v>0.7360321177651397</v>
       </c>
-      <c r="J28">
-        <v>6.19931517114638</v>
-      </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1">
@@ -2878,9 +2869,6 @@
       <c r="I75">
         <v>2.560386473429954</v>
       </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="1">
@@ -2910,9 +2898,6 @@
       <c r="I76">
         <v>1.365991521431931</v>
       </c>
-      <c r="J76">
-        <v>-21.26619516813034</v>
-      </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="1">
@@ -3448,9 +3433,6 @@
       <c r="I93">
         <v>-6.033428454953116</v>
       </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="1">
@@ -4956,9 +4938,6 @@
       <c r="I142">
         <v>3.406862745098049</v>
       </c>
-      <c r="J142">
-        <v>0</v>
-      </c>
     </row>
     <row r="143" spans="1:10">
       <c r="A143" s="1">
@@ -4988,9 +4967,6 @@
       <c r="I143">
         <v>0.4740459824603027</v>
       </c>
-      <c r="J143">
-        <v>44.12723398239466</v>
-      </c>
     </row>
     <row r="144" spans="1:10">
       <c r="A144" s="1">
@@ -5590,9 +5566,6 @@
       <c r="I162">
         <v>-2.956556717618664</v>
       </c>
-      <c r="J162">
-        <v>0</v>
-      </c>
     </row>
     <row r="163" spans="1:10">
       <c r="A163" s="1">
@@ -6281,6 +6254,12 @@
       <c r="E185">
         <v>15250</v>
       </c>
+      <c r="F185">
+        <v>0.6457084251333357</v>
+      </c>
+      <c r="G185">
+        <v>858131</v>
+      </c>
       <c r="H185">
         <v>1328976</v>
       </c>
@@ -6288,7 +6267,7 @@
         <v>-3.236040609137059</v>
       </c>
       <c r="J185">
-        <v>0</v>
+        <v>-73.7457754868027</v>
       </c>
     </row>
     <row r="186" spans="1:10">
@@ -6966,9 +6945,6 @@
       <c r="I208">
         <v>-8.169014084507042</v>
       </c>
-      <c r="J208">
-        <v>0</v>
-      </c>
     </row>
     <row r="209" spans="1:10">
       <c r="A209" s="1">
@@ -7655,16 +7631,22 @@
         <v>85</v>
       </c>
       <c r="E231">
-        <v>22320</v>
+        <v>22350</v>
+      </c>
+      <c r="F231">
+        <v>1.219722198313408</v>
+      </c>
+      <c r="G231">
+        <v>57732640</v>
       </c>
       <c r="H231">
         <v>47332614</v>
       </c>
       <c r="I231">
-        <v>-11.42857142857143</v>
+        <v>-11.30952380952381</v>
       </c>
       <c r="J231">
-        <v>0</v>
+        <v>-74.84182908022673</v>
       </c>
     </row>
     <row r="232" spans="1:10">
@@ -10384,7 +10366,7 @@
         <v>84</v>
       </c>
       <c r="E322">
-        <v>13260</v>
+        <v>13270</v>
       </c>
       <c r="F322">
         <v>1.711952493237322</v>
@@ -10396,7 +10378,7 @@
         <v>9772756</v>
       </c>
       <c r="I322">
-        <v>4.574132492113558</v>
+        <v>4.652996845425861</v>
       </c>
       <c r="J322">
         <v>10.04283434911641</v>
@@ -10416,7 +10398,7 @@
         <v>85</v>
       </c>
       <c r="E323">
-        <v>12630</v>
+        <v>12640</v>
       </c>
       <c r="F323">
         <v>0.4058992217227325</v>
@@ -10428,7 +10410,7 @@
         <v>9769526</v>
       </c>
       <c r="I323">
-        <v>-4.751131221719462</v>
+        <v>-4.747550866616423</v>
       </c>
       <c r="J323">
         <v>-76.29027538286577</v>
@@ -11109,9 +11091,6 @@
       <c r="I346">
         <v>2.31012132291839</v>
       </c>
-      <c r="J346">
-        <v>0</v>
-      </c>
     </row>
     <row r="347" spans="1:10">
       <c r="A347" s="1">
@@ -11818,6 +11797,12 @@
       <c r="E369">
         <v>24640</v>
       </c>
+      <c r="F369">
+        <v>0.6804903995688371</v>
+      </c>
+      <c r="G369">
+        <v>40585460</v>
+      </c>
       <c r="H369">
         <v>59641488</v>
       </c>
@@ -11825,7 +11810,7 @@
         <v>-8.435525826830171</v>
       </c>
       <c r="J369">
-        <v>0</v>
+        <v>-74.77847105229593</v>
       </c>
     </row>
     <row r="370" spans="1:10">
@@ -12479,6 +12464,12 @@
       <c r="E392">
         <v>13890</v>
       </c>
+      <c r="F392">
+        <v>0.6474759223933374</v>
+      </c>
+      <c r="G392">
+        <v>1809106</v>
+      </c>
       <c r="H392">
         <v>2794090</v>
       </c>
@@ -12486,7 +12477,7 @@
         <v>-0.8565310492505307</v>
       </c>
       <c r="J392">
-        <v>0</v>
+        <v>-72.20890184384831</v>
       </c>
     </row>
     <row r="393" spans="1:10">
@@ -13912,9 +13903,6 @@
       <c r="I438">
         <v>-3.03756994404476</v>
       </c>
-      <c r="J438">
-        <v>0</v>
-      </c>
     </row>
     <row r="439" spans="1:10">
       <c r="A439" s="1">
@@ -14623,6 +14611,12 @@
       <c r="E462">
         <v>32480</v>
       </c>
+      <c r="F462">
+        <v>0.02771851782576833</v>
+      </c>
+      <c r="G462">
+        <v>433911</v>
+      </c>
       <c r="H462">
         <v>15654192</v>
       </c>
@@ -14649,9 +14643,6 @@
       <c r="I463">
         <v>4.341133004926112</v>
       </c>
-      <c r="J463">
-        <v>0</v>
-      </c>
     </row>
     <row r="464" spans="1:10">
       <c r="A464" s="1">
@@ -14675,9 +14666,6 @@
       <c r="I464">
         <v>3.452345824727066</v>
       </c>
-      <c r="J464">
-        <v>0</v>
-      </c>
     </row>
     <row r="465" spans="1:10">
       <c r="A465" s="1">
@@ -15298,7 +15286,7 @@
         <v>85</v>
       </c>
       <c r="E484">
-        <v>40070</v>
+        <v>40080</v>
       </c>
       <c r="F484">
         <v>1.356120794469767</v>
@@ -15310,7 +15298,7 @@
         <v>17407585</v>
       </c>
       <c r="I484">
-        <v>-4.299020778600426</v>
+        <v>-4.275137329830425</v>
       </c>
       <c r="J484">
         <v>-71.16344761300807</v>
@@ -15982,9 +15970,6 @@
       <c r="I507">
         <v>-2.615384615384619</v>
       </c>
-      <c r="J507">
-        <v>0</v>
-      </c>
     </row>
     <row r="508" spans="1:10">
       <c r="A508" s="1">
@@ -16066,9 +16051,6 @@
       <c r="I510">
         <v>3.047619047619055</v>
       </c>
-      <c r="J510">
-        <v>0</v>
-      </c>
     </row>
     <row r="511" spans="1:10">
       <c r="A511" s="1">
@@ -16098,9 +16080,6 @@
       <c r="I511">
         <v>1.232285890326557</v>
       </c>
-      <c r="J511">
-        <v>12.49080680183472</v>
-      </c>
     </row>
     <row r="512" spans="1:10">
       <c r="A512" s="1">
@@ -17352,9 +17331,6 @@
       <c r="I553">
         <v>-3.622392974753019</v>
       </c>
-      <c r="J553">
-        <v>0</v>
-      </c>
     </row>
     <row r="554" spans="1:10">
       <c r="A554" s="1">
@@ -18075,9 +18051,6 @@
       </c>
       <c r="I576">
         <v>-3.529143897996356</v>
-      </c>
-      <c r="J576">
-        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:10">

--- a/dataproject/data/eu27_pas_gdp.xlsx
+++ b/dataproject/data/eu27_pas_gdp.xlsx
@@ -1442,9 +1442,6 @@
       <c r="I26">
         <v>3.289238469789058</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1">
@@ -1468,9 +1465,6 @@
       <c r="I27">
         <v>3.461405330564205</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1">
@@ -1500,9 +1494,6 @@
       <c r="I28">
         <v>0.7360321177651397</v>
       </c>
-      <c r="J28">
-        <v>6.19931517114638</v>
-      </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1">
@@ -1998,7 +1989,7 @@
         <v>82</v>
       </c>
       <c r="E44">
-        <v>35040</v>
+        <v>35050</v>
       </c>
       <c r="F44">
         <v>2.931521256633462</v>
@@ -2010,7 +2001,7 @@
         <v>11351727</v>
       </c>
       <c r="I44">
-        <v>1.21317157712304</v>
+        <v>1.242056614673603</v>
       </c>
       <c r="J44">
         <v>9.771350118997102</v>
@@ -2042,7 +2033,7 @@
         <v>11398589</v>
       </c>
       <c r="I45">
-        <v>1.341324200913241</v>
+        <v>1.312410841654787</v>
       </c>
       <c r="J45">
         <v>3.464123646683182</v>
@@ -2062,7 +2053,7 @@
         <v>84</v>
       </c>
       <c r="E46">
-        <v>35940</v>
+        <v>35950</v>
       </c>
       <c r="F46">
         <v>3.098548306715741</v>
@@ -2074,7 +2065,7 @@
         <v>11455519</v>
       </c>
       <c r="I46">
-        <v>1.210926499577591</v>
+        <v>1.239087580963116</v>
       </c>
       <c r="J46">
         <v>2.158719352376282</v>
@@ -2094,7 +2085,7 @@
         <v>85</v>
       </c>
       <c r="E47">
-        <v>33500</v>
+        <v>33560</v>
       </c>
       <c r="F47">
         <v>0.8263582192660582</v>
@@ -2106,7 +2097,7 @@
         <v>11522440</v>
       </c>
       <c r="I47">
-        <v>-6.789092932665552</v>
+        <v>-6.648122392211409</v>
       </c>
       <c r="J47">
         <v>-73.33079437635284</v>
@@ -2878,9 +2869,6 @@
       <c r="I75">
         <v>2.560386473429954</v>
       </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="1">
@@ -2910,9 +2898,6 @@
       <c r="I76">
         <v>1.365991521431931</v>
       </c>
-      <c r="J76">
-        <v>-21.26619516813034</v>
-      </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="1">
@@ -3448,9 +3433,6 @@
       <c r="I93">
         <v>-6.033428454953116</v>
       </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="1">
@@ -4956,9 +4938,6 @@
       <c r="I142">
         <v>3.406862745098049</v>
       </c>
-      <c r="J142">
-        <v>0</v>
-      </c>
     </row>
     <row r="143" spans="1:10">
       <c r="A143" s="1">
@@ -4988,9 +4967,6 @@
       <c r="I143">
         <v>0.4740459824603027</v>
       </c>
-      <c r="J143">
-        <v>44.12723398239466</v>
-      </c>
     </row>
     <row r="144" spans="1:10">
       <c r="A144" s="1">
@@ -5590,9 +5566,6 @@
       <c r="I162">
         <v>-2.956556717618664</v>
       </c>
-      <c r="J162">
-        <v>0</v>
-      </c>
     </row>
     <row r="163" spans="1:10">
       <c r="A163" s="1">
@@ -6281,6 +6254,12 @@
       <c r="E185">
         <v>15250</v>
       </c>
+      <c r="F185">
+        <v>0.6457084251333357</v>
+      </c>
+      <c r="G185">
+        <v>858131</v>
+      </c>
       <c r="H185">
         <v>1328976</v>
       </c>
@@ -6288,7 +6267,7 @@
         <v>-3.236040609137059</v>
       </c>
       <c r="J185">
-        <v>0</v>
+        <v>-73.7457754868027</v>
       </c>
     </row>
     <row r="186" spans="1:10">
@@ -6966,9 +6945,6 @@
       <c r="I208">
         <v>-8.169014084507042</v>
       </c>
-      <c r="J208">
-        <v>0</v>
-      </c>
     </row>
     <row r="209" spans="1:10">
       <c r="A209" s="1">
@@ -7655,16 +7631,22 @@
         <v>85</v>
       </c>
       <c r="E231">
-        <v>22320</v>
+        <v>22350</v>
+      </c>
+      <c r="F231">
+        <v>1.219722198313408</v>
+      </c>
+      <c r="G231">
+        <v>57732640</v>
       </c>
       <c r="H231">
         <v>47332614</v>
       </c>
       <c r="I231">
-        <v>-11.42857142857143</v>
+        <v>-11.30952380952381</v>
       </c>
       <c r="J231">
-        <v>0</v>
+        <v>-74.84182908022673</v>
       </c>
     </row>
     <row r="232" spans="1:10">
@@ -9713,7 +9695,7 @@
         <v>85</v>
       </c>
       <c r="E300">
-        <v>11460</v>
+        <v>11500</v>
       </c>
       <c r="F300">
         <v>0.4764966431872534</v>
@@ -9725,7 +9707,7 @@
         <v>4058165</v>
       </c>
       <c r="I300">
-        <v>-7.951807228915664</v>
+        <v>-7.630522088353409</v>
       </c>
       <c r="J300">
         <v>-81.8258112339345</v>
@@ -10384,7 +10366,7 @@
         <v>84</v>
       </c>
       <c r="E322">
-        <v>13260</v>
+        <v>13270</v>
       </c>
       <c r="F322">
         <v>1.711952493237322</v>
@@ -10396,7 +10378,7 @@
         <v>9772756</v>
       </c>
       <c r="I322">
-        <v>4.574132492113558</v>
+        <v>4.652996845425861</v>
       </c>
       <c r="J322">
         <v>10.04283434911641</v>
@@ -10416,7 +10398,7 @@
         <v>85</v>
       </c>
       <c r="E323">
-        <v>12630</v>
+        <v>12640</v>
       </c>
       <c r="F323">
         <v>0.4058992217227325</v>
@@ -10428,7 +10410,7 @@
         <v>9769526</v>
       </c>
       <c r="I323">
-        <v>-4.751131221719462</v>
+        <v>-4.747550866616423</v>
       </c>
       <c r="J323">
         <v>-76.29027538286577</v>
@@ -11109,9 +11091,6 @@
       <c r="I346">
         <v>2.31012132291839</v>
       </c>
-      <c r="J346">
-        <v>0</v>
-      </c>
     </row>
     <row r="347" spans="1:10">
       <c r="A347" s="1">
@@ -11818,6 +11797,12 @@
       <c r="E369">
         <v>24640</v>
       </c>
+      <c r="F369">
+        <v>0.6804903995688371</v>
+      </c>
+      <c r="G369">
+        <v>40585460</v>
+      </c>
       <c r="H369">
         <v>59641488</v>
       </c>
@@ -11825,7 +11810,7 @@
         <v>-8.435525826830171</v>
       </c>
       <c r="J369">
-        <v>0</v>
+        <v>-74.77847105229593</v>
       </c>
     </row>
     <row r="370" spans="1:10">
@@ -12479,6 +12464,12 @@
       <c r="E392">
         <v>13890</v>
       </c>
+      <c r="F392">
+        <v>0.6474759223933374</v>
+      </c>
+      <c r="G392">
+        <v>1809106</v>
+      </c>
       <c r="H392">
         <v>2794090</v>
       </c>
@@ -12486,7 +12477,7 @@
         <v>-0.8565310492505307</v>
       </c>
       <c r="J392">
-        <v>0</v>
+        <v>-72.20890184384831</v>
       </c>
     </row>
     <row r="393" spans="1:10">
@@ -13912,9 +13903,6 @@
       <c r="I438">
         <v>-3.03756994404476</v>
       </c>
-      <c r="J438">
-        <v>0</v>
-      </c>
     </row>
     <row r="439" spans="1:10">
       <c r="A439" s="1">
@@ -14649,9 +14637,6 @@
       <c r="I463">
         <v>4.341133004926112</v>
       </c>
-      <c r="J463">
-        <v>0</v>
-      </c>
     </row>
     <row r="464" spans="1:10">
       <c r="A464" s="1">
@@ -14675,9 +14660,6 @@
       <c r="I464">
         <v>3.452345824727066</v>
       </c>
-      <c r="J464">
-        <v>0</v>
-      </c>
     </row>
     <row r="465" spans="1:10">
       <c r="A465" s="1">
@@ -15298,7 +15280,7 @@
         <v>85</v>
       </c>
       <c r="E484">
-        <v>40070</v>
+        <v>40080</v>
       </c>
       <c r="F484">
         <v>1.356120794469767</v>
@@ -15310,7 +15292,7 @@
         <v>17407585</v>
       </c>
       <c r="I484">
-        <v>-4.299020778600426</v>
+        <v>-4.275137329830425</v>
       </c>
       <c r="J484">
         <v>-71.16344761300807</v>
@@ -15942,7 +15924,7 @@
         <v>84</v>
       </c>
       <c r="E506">
-        <v>13000</v>
+        <v>13020</v>
       </c>
       <c r="F506">
         <v>1.236691162087232</v>
@@ -15954,7 +15936,7 @@
         <v>37972812</v>
       </c>
       <c r="I506">
-        <v>4.669887278582929</v>
+        <v>4.830917874396135</v>
       </c>
       <c r="J506">
         <v>7.339458147123645</v>
@@ -15974,16 +15956,13 @@
         <v>85</v>
       </c>
       <c r="E507">
-        <v>12660</v>
+        <v>12680</v>
       </c>
       <c r="H507">
         <v>37958138</v>
       </c>
       <c r="I507">
-        <v>-2.615384615384619</v>
-      </c>
-      <c r="J507">
-        <v>0</v>
+        <v>-2.611367127496156</v>
       </c>
     </row>
     <row r="508" spans="1:10">
@@ -16066,9 +16045,6 @@
       <c r="I510">
         <v>3.047619047619055</v>
       </c>
-      <c r="J510">
-        <v>0</v>
-      </c>
     </row>
     <row r="511" spans="1:10">
       <c r="A511" s="1">
@@ -16098,9 +16074,6 @@
       <c r="I511">
         <v>1.232285890326557</v>
       </c>
-      <c r="J511">
-        <v>12.49080680183472</v>
-      </c>
     </row>
     <row r="512" spans="1:10">
       <c r="A512" s="1">
@@ -17352,9 +17325,6 @@
       <c r="I553">
         <v>-3.622392974753019</v>
       </c>
-      <c r="J553">
-        <v>0</v>
-      </c>
     </row>
     <row r="554" spans="1:10">
       <c r="A554" s="1">
@@ -18075,9 +18045,6 @@
       </c>
       <c r="I576">
         <v>-3.529143897996356</v>
-      </c>
-      <c r="J576">
-        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:10">
